--- a/xls/square_16_tri3_6.xlsx
+++ b/xls/square_16_tri3_6.xlsx
@@ -485,13 +485,13 @@
         <v>216</v>
       </c>
       <c r="I6">
-        <v>20.19394118667335</v>
+        <v>20.13929399837739</v>
       </c>
       <c r="J6">
-        <v>21.27052615005206</v>
+        <v>20.80864492918409</v>
       </c>
       <c r="K6">
-        <v>6.6818494806602855</v>
+        <v>6.034342708140959</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -520,13 +520,13 @@
         <v>294</v>
       </c>
       <c r="I7">
-        <v>-1.0635865563985354</v>
+        <v>-1.063604999107668</v>
       </c>
       <c r="J7">
-        <v>-0.028182153490508195</v>
+        <v>-0.028208040058722007</v>
       </c>
       <c r="K7">
-        <v>-0.7616798300213989</v>
+        <v>-0.761683755640044</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -555,13 +555,13 @@
         <v>384</v>
       </c>
       <c r="I8">
-        <v>-1.409455475909028</v>
+        <v>-1.4094554815717686</v>
       </c>
       <c r="J8">
-        <v>-1.3405067880210422</v>
+        <v>-1.3405065626826187</v>
       </c>
       <c r="K8">
-        <v>-0.7915316284190369</v>
+        <v>-0.7915316264105584</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -590,13 +590,13 @@
         <v>486</v>
       </c>
       <c r="I9">
-        <v>-1.1724915009555412</v>
+        <v>-1.1724914414722678</v>
       </c>
       <c r="J9">
-        <v>-0.8729441985382995</v>
+        <v>-0.8729441872492811</v>
       </c>
       <c r="K9">
-        <v>-0.18839728603938768</v>
+        <v>-0.1883972963791865</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -625,13 +625,13 @@
         <v>600</v>
       </c>
       <c r="I10">
-        <v>-1.4202627923570095</v>
+        <v>-1.4202627952797424</v>
       </c>
       <c r="J10">
-        <v>-1.3030793212794165</v>
+        <v>-1.303079265239053</v>
       </c>
       <c r="K10">
-        <v>-0.5358332580346338</v>
+        <v>-0.5358332627213361</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -660,13 +660,13 @@
         <v>726</v>
       </c>
       <c r="I11">
-        <v>-0.6301868997509688</v>
+        <v>-0.6301869666469051</v>
       </c>
       <c r="J11">
-        <v>-0.5960375948099604</v>
+        <v>-0.5960376403968071</v>
       </c>
       <c r="K11">
-        <v>0.1335504329882666</v>
+        <v>0.1335504161700053</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -695,13 +695,13 @@
         <v>864</v>
       </c>
       <c r="I12">
-        <v>-0.7058034598194239</v>
+        <v>-0.7058034522034331</v>
       </c>
       <c r="J12">
-        <v>-0.6693191913548601</v>
+        <v>-0.6693191884824633</v>
       </c>
       <c r="K12">
-        <v>0.13422681088636787</v>
+        <v>0.13422678275057603</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -730,13 +730,13 @@
         <v>1014</v>
       </c>
       <c r="I13">
-        <v>-0.43639038563978466</v>
+        <v>-0.43639038125051693</v>
       </c>
       <c r="J13">
-        <v>-0.42669637386822185</v>
+        <v>-0.4266963721223556</v>
       </c>
       <c r="K13">
-        <v>0.24087177034477328</v>
+        <v>0.2408717659161451</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -765,13 +765,13 @@
         <v>1176</v>
       </c>
       <c r="I14">
-        <v>-0.4542417405537763</v>
+        <v>-0.4542416763692374</v>
       </c>
       <c r="J14">
-        <v>-0.4425423028601048</v>
+        <v>-0.4425422461556078</v>
       </c>
       <c r="K14">
-        <v>0.23007544751816283</v>
+        <v>0.2300754253093974</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -800,13 +800,13 @@
         <v>1350</v>
       </c>
       <c r="I15">
-        <v>-0.3124487804106894</v>
+        <v>-0.3124487899125469</v>
       </c>
       <c r="J15">
-        <v>-0.30968388446747125</v>
+        <v>-0.3096838890748475</v>
       </c>
       <c r="K15">
-        <v>0.41357904835282183</v>
+        <v>0.4135790631646234</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -835,13 +835,13 @@
         <v>1536</v>
       </c>
       <c r="I16">
-        <v>-0.37497124682999317</v>
+        <v>-0.3749712548344339</v>
       </c>
       <c r="J16">
-        <v>-0.3788367927464901</v>
+        <v>-0.37883679984103746</v>
       </c>
       <c r="K16">
-        <v>0.2646855153597904</v>
+        <v>0.2646855208683455</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -870,13 +870,13 @@
         <v>1734</v>
       </c>
       <c r="I17">
-        <v>-0.009297488288273611</v>
+        <v>-0.009297488227566856</v>
       </c>
       <c r="J17">
-        <v>-0.0071117217910654194</v>
+        <v>-0.007111721744593349</v>
       </c>
       <c r="K17">
-        <v>3.129660807909597</v>
+        <v>3.129660807605272</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -905,13 +905,13 @@
         <v>1944</v>
       </c>
       <c r="I18">
-        <v>-0.0006661850399235013</v>
+        <v>-0.0006661850410415686</v>
       </c>
       <c r="J18">
-        <v>-0.0005373329670974074</v>
+        <v>-0.0005373329678581417</v>
       </c>
       <c r="K18">
-        <v>2.7366857400879656</v>
+        <v>2.736685740420802</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -940,13 +940,13 @@
         <v>2166</v>
       </c>
       <c r="I19">
-        <v>-0.00033340885784034963</v>
+        <v>-0.00033340885784802194</v>
       </c>
       <c r="J19">
-        <v>-0.00022543911175836978</v>
+        <v>-0.00022543911176512357</v>
       </c>
       <c r="K19">
-        <v>2.4578847738749894</v>
+        <v>2.4578847737118084</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -975,13 +975,13 @@
         <v>2400</v>
       </c>
       <c r="I20">
-        <v>-8.075406375148923e-5</v>
+        <v>-8.075406376074849e-5</v>
       </c>
       <c r="J20">
-        <v>-6.576684222265119e-5</v>
+        <v>-6.576684222906495e-5</v>
       </c>
       <c r="K20">
-        <v>2.287449119528097</v>
+        <v>2.287449119530098</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1010,13 +1010,13 @@
         <v>2646</v>
       </c>
       <c r="I21">
-        <v>8.728802969197115e-6</v>
+        <v>8.728802968907823e-6</v>
       </c>
       <c r="J21">
-        <v>-2.7178065307042004e-7</v>
+        <v>-2.7178065311863644e-7</v>
       </c>
       <c r="K21">
-        <v>1.9495124923290388</v>
+        <v>1.9495124923765064</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1045,13 +1045,13 @@
         <v>2904</v>
       </c>
       <c r="I22">
-        <v>-5.17274352071398e-5</v>
+        <v>-5.172743520723624e-5</v>
       </c>
       <c r="J22">
-        <v>-4.821906622833589e-5</v>
+        <v>-4.8219066228577005e-5</v>
       </c>
       <c r="K22">
-        <v>2.270950606542418</v>
+        <v>2.2709506067923386</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1080,13 +1080,13 @@
         <v>3174</v>
       </c>
       <c r="I23">
-        <v>-2.9275120406557115e-7</v>
+        <v>-2.9275120392092195e-7</v>
       </c>
       <c r="J23">
-        <v>-4.4121555056257195e-7</v>
+        <v>-4.4121555080365404e-7</v>
       </c>
       <c r="K23">
-        <v>1.3477273898264468</v>
+        <v>1.3477273900685267</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1115,13 +1115,13 @@
         <v>3456</v>
       </c>
       <c r="I24">
-        <v>-7.538129704208313e-7</v>
+        <v>-7.538129703726148e-7</v>
       </c>
       <c r="J24">
         <v>-6.739603166377398e-7</v>
       </c>
       <c r="K24">
-        <v>1.3365432915225035</v>
+        <v>1.336543291325018</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1150,13 +1150,13 @@
         <v>3750</v>
       </c>
       <c r="I25">
-        <v>-7.93650276160805e-7</v>
+        <v>-7.936502761125885e-7</v>
       </c>
       <c r="J25">
-        <v>-6.52102573456687e-7</v>
+        <v>-6.521025732156048e-7</v>
       </c>
       <c r="K25">
-        <v>1.301371815126196</v>
+        <v>1.3013718150303457</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1185,13 +1185,13 @@
         <v>4056</v>
       </c>
       <c r="I26">
-        <v>-4.962107503158333e-7</v>
+        <v>-4.962107501229676e-7</v>
       </c>
       <c r="J26">
-        <v>-4.45267827566527e-7</v>
+        <v>-4.452678278076091e-7</v>
       </c>
       <c r="K26">
-        <v>1.2476795115338633</v>
+        <v>1.247679511572889</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1220,13 +1220,13 @@
         <v>4374</v>
       </c>
       <c r="I27">
-        <v>-5.97476543190812e-7</v>
+        <v>-5.974765432390285e-7</v>
       </c>
       <c r="J27">
         <v>-5.17658129590997e-7</v>
       </c>
       <c r="K27">
-        <v>1.270668639370967</v>
+        <v>1.2706686395596558</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1258,10 +1258,10 @@
         <v>-5.43511078716708e-7</v>
       </c>
       <c r="J28">
-        <v>-4.980323962044473e-7</v>
+        <v>-4.980323961080144e-7</v>
       </c>
       <c r="K28">
-        <v>1.279709314054391</v>
+        <v>1.2797093141048401</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1290,13 +1290,13 @@
         <v>5046</v>
       </c>
       <c r="I29">
-        <v>-3.5746689926126245e-7</v>
+        <v>-3.574668994059117e-7</v>
       </c>
       <c r="J29">
-        <v>-3.7739633296077313e-7</v>
+        <v>-3.773963330089895e-7</v>
       </c>
       <c r="K29">
-        <v>1.2555994678718896</v>
+        <v>1.255599467915816</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1325,13 +1325,13 @@
         <v>5400</v>
       </c>
       <c r="I30">
-        <v>-5.33683301071681e-7</v>
+        <v>-5.336833008305988e-7</v>
       </c>
       <c r="J30">
-        <v>-4.934023604399167e-7</v>
+        <v>-4.934023603434839e-7</v>
       </c>
       <c r="K30">
-        <v>1.280362184425629</v>
+        <v>1.2803621844905164</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,13 +1360,13 @@
         <v>5766</v>
       </c>
       <c r="I31">
-        <v>-4.44758671833956e-7</v>
+        <v>-4.447586720268217e-7</v>
       </c>
       <c r="J31">
-        <v>-4.132984457874257e-7</v>
+        <v>-4.1329844593207495e-7</v>
       </c>
       <c r="K31">
-        <v>1.2432176496142913</v>
+        <v>1.2432176497747491</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1395,13 +1395,13 @@
         <v>6144</v>
       </c>
       <c r="I32">
-        <v>-4.231156364807258e-7</v>
+        <v>-4.2311563633607657e-7</v>
       </c>
       <c r="J32">
-        <v>-3.869418195275506e-7</v>
+        <v>-3.869418197686327e-7</v>
       </c>
       <c r="K32">
-        <v>1.2240333362630091</v>
+        <v>1.2240333360694051</v>
       </c>
     </row>
   </sheetData>
